--- a/src/main/resources/testResult.xlsx
+++ b/src/main/resources/testResult.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>Test Name</t>
   </si>
@@ -38,115 +38,91 @@
     <t>Execution Time</t>
   </si>
   <si>
+    <t>Execution Type</t>
+  </si>
+  <si>
+    <t>Thread Count</t>
+  </si>
+  <si>
     <t>TC04_navigateToAutoPayPage</t>
   </si>
   <si>
+    <t>Edge</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>Make Payment Page not displayed within expected time</t>
+  </si>
+  <si>
+    <t>ECS_TEST</t>
+  </si>
+  <si>
+    <t>18:29:41</t>
+  </si>
+  <si>
+    <t>18:31:02</t>
+  </si>
+  <si>
+    <t>00h:01m:20s</t>
+  </si>
+  <si>
+    <t>Parallel</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>TC05_navigateToStatementsPage</t>
+  </si>
+  <si>
     <t>Chrome</t>
   </si>
   <si>
-    <t>SKIP</t>
+    <t>PASS</t>
   </si>
   <si>
     <t>Test Passed or Skipped</t>
   </si>
   <si>
-    <t>ECS_TEST</t>
-  </si>
-  <si>
-    <t>18:06:17</t>
-  </si>
-  <si>
-    <t>18:08:05</t>
-  </si>
-  <si>
-    <t>00h:01m:48s</t>
-  </si>
-  <si>
-    <t>TC01_logInToECSWithValidID</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>18:06:30</t>
-  </si>
-  <si>
-    <t>18:08:42</t>
-  </si>
-  <si>
-    <t>00h:02m:12s</t>
+    <t>18:29:45</t>
+  </si>
+  <si>
+    <t>18:31:14</t>
+  </si>
+  <si>
+    <t>00h:01m:29s</t>
   </si>
   <si>
     <t>TC03_navigateToMakeAPaymentPage</t>
   </si>
   <si>
-    <t>18:09:04</t>
-  </si>
-  <si>
-    <t>00h:02m:33s</t>
-  </si>
-  <si>
-    <t>TC05_navigateToStatementsPage</t>
-  </si>
-  <si>
-    <t>18:06:43</t>
-  </si>
-  <si>
-    <t>18:09:49</t>
-  </si>
-  <si>
-    <t>00h:03m:05s</t>
-  </si>
-  <si>
-    <t>TC02_logInToECSWithInvalidID</t>
-  </si>
-  <si>
-    <t>18:09:54</t>
-  </si>
-  <si>
-    <t>18:11:02</t>
+    <t>18:29:57</t>
+  </si>
+  <si>
+    <t>18:31:27</t>
+  </si>
+  <si>
+    <t>00h:01m:30s</t>
+  </si>
+  <si>
+    <t>18:31:07</t>
+  </si>
+  <si>
+    <t>18:32:15</t>
   </si>
   <si>
     <t>00h:01m:08s</t>
   </si>
   <si>
-    <t>18:09:53</t>
-  </si>
-  <si>
-    <t>18:11:04</t>
-  </si>
-  <si>
-    <t>00h:01m:10s</t>
-  </si>
-  <si>
-    <t>18:08:59</t>
-  </si>
-  <si>
-    <t>18:11:18</t>
-  </si>
-  <si>
-    <t>00h:02m:18s</t>
-  </si>
-  <si>
-    <t>18:10:17</t>
-  </si>
-  <si>
-    <t>18:11:20</t>
-  </si>
-  <si>
-    <t>00h:01m:02s</t>
-  </si>
-  <si>
     <t>FAIL</t>
   </si>
   <si>
-    <t>Element or Page took too long to load.</t>
-  </si>
-  <si>
-    <t>18:11:42</t>
-  </si>
-  <si>
-    <t>18:12:52</t>
+    <t>18:32:21</t>
+  </si>
+  <si>
+    <t>18:33:29</t>
   </si>
 </sst>
 </file>
@@ -208,7 +184,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -217,11 +193,13 @@
     <col min="1" max="1" width="35.0234375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="8.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="6.765625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="35.48046875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="51.2734375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="12.875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="14.84765625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="13.84765625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="15.0390625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.9296875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="13.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -249,239 +227,171 @@
       <c r="H1" t="s" s="1">
         <v>7</v>
       </c>
+      <c r="I1" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
+      <c r="J4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" t="s">
         <v>33</v>
       </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" t="s">
-        <v>34</v>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
